--- a/Lakshmi1.xlsx
+++ b/Lakshmi1.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
@@ -1151,8 +1151,66 @@
         <v>76788</v>
       </c>
     </row>
-    <row r="24" ht="19.95" customHeight="1"/>
-    <row r="25" ht="19.95" customHeight="1"/>
+    <row r="24" ht="19.95" customHeight="1">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2026-01-05 12:40:12</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>NIFTY2610626400PE</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>93.05</v>
+      </c>
+      <c r="D24" t="n">
+        <v>93.45</v>
+      </c>
+      <c r="E24" t="n">
+        <v>910</v>
+      </c>
+      <c r="F24" t="n">
+        <v>364</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2953739</v>
+      </c>
+      <c r="H24" t="n">
+        <v>114795</v>
+      </c>
+    </row>
+    <row r="25" ht="19.95" customHeight="1">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2026-01-05 12:42:23</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>NIFTY2610626400PE</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>92.65000000000001</v>
+      </c>
+      <c r="D25" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="E25" t="n">
+        <v>910</v>
+      </c>
+      <c r="F25" t="n">
+        <v>955.5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2967950</v>
+      </c>
+      <c r="H25" t="n">
+        <v>113680</v>
+      </c>
+    </row>
     <row r="26" ht="19.95" customHeight="1"/>
     <row r="27" ht="19.95" customHeight="1"/>
     <row r="28" ht="19.95" customHeight="1"/>
